--- a/medicine/Enfance/Muriel_Bloch/Muriel_Bloch.xlsx
+++ b/medicine/Enfance/Muriel_Bloch/Muriel_Bloch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muriel Bloch, née le 9 février 1954, est une collectionneuse, conteuse-voyageuse et auteure de recueils de contes française.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un DEA de lettres modernes sur Le flou au cinéma, incertitudes narratives et perceptives dans le cinéma expérimental des années 20 aux années 60, elle travaille dans l'association des Téléphériques, avec Corinne Atlas, Moni Grégo, Madeleine Laik et Marielle Tabart puis au Centre Georges Pompidou où elle travaille à l' atelier des enfants sous la direction de Danièle Giraudy et à la cellule pédagogique du musée d'Art moderne.
-Coresponsable avec Evelyne Cevin de la formation autour du conte pour la Joie par les livres/ Bnf, elle a coordonné la programmation de Paris sur Paroles pour le Festival de Paris Quartier d'été, pendant 8 ans, et celui de Babel Contes pour le Festival d'Automne à Paris en 2000[1].
-Elle a collaboré avec Dominique Gros pour le film documentaire Il était une fois des conteurs[2] et avec Edwige Kertez pour 7 Contes et légendes du Louvre (1987) Les films d'Ici. A animé la collection Fées et Gestes chez Hatier;  Le cabinet des contes, petit mercure de France.
+Coresponsable avec Evelyne Cevin de la formation autour du conte pour la Joie par les livres/ Bnf, elle a coordonné la programmation de Paris sur Paroles pour le Festival de Paris Quartier d'été, pendant 8 ans, et celui de Babel Contes pour le Festival d'Automne à Paris en 2000.
+Elle a collaboré avec Dominique Gros pour le film documentaire Il était une fois des conteurs et avec Edwige Kertez pour 7 Contes et légendes du Louvre (1987) Les films d'Ici. A animé la collection Fées et Gestes chez Hatier;  Le cabinet des contes, petit mercure de France.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a publié plusieurs dizaines de livres, surtout des contes. Elle a aussi écrit un essai, La Sagesse de la conteuse, publié en 2008.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a publié plusieurs dizaines de livres, surtout des contes. Elle a aussi écrit un essai, La Sagesse de la conteuse, publié en 2008.
 Elle a enregistré des cd et des livres-CD : Contes chahutés enfance et musique, Cocozumba, naive, Contes, Jazz et Zizanie, avec Didier Levallet, Enface et Musique, Carte postale du Brésil, naîve, Carte postale des Balkans, naîve, Dans le ventre d'Anansi, musiques de Joao Mota, avec la participation de Miguel Fernandez, chez Ouidire. Coup de cœur Charles Cros 2014. Cimes et racines , pour la fondation Yves Rocher, 2016
-Coassine[3], Muriel Bloch et Régis Lejonc, Magnard jeunesse, 2022
+Coassine, Muriel Bloch et Régis Lejonc, Magnard jeunesse, 2022
 Coyote et le chant des larmes, images Marie Novion, éd Le Seuil Jeunesse, 2018
 Funambule, images Lucie Vandervelve, conte original pour la collection Les mots d'où, éd le Robert 2018
 Méandre, images Sandra Desmazières, conte original pour la collection Les mots d'où éd Le Robert 2017
@@ -580,7 +596,7 @@
 Sagesses et malices de la tradition juive, images Sophie Dutertre, éd Albin Michel 2002
 La Marchande de soleils, livre (illustrations de Blaise Patrix), CD (musiques de Guilla Thiam), éd. Thierry Magnier 2002
 Les Trois poils de moustache du tigre, images Aurelia Grandin éd  Albin Michel 2001
-Cocozumba[4],[5], images Mireille Vautier, album au éd. du Seuil et cd éd. Naive; (musiques de Guilla Thiam et Leity M'Baye avec la participation de Fred Costa), éd.naive 2001
+Cocozumba images Mireille Vautier, album au éd. du Seuil et cd éd. Naive; (musiques de Guilla Thiam et Leity M'Baye avec la participation de Fred Costa), éd.naive 2001
 Contes, jazz et zizanie, (musiques de Didier Levallet, Yves Robert), éd. Enfance et musique 2003
 Contes chahutés, (musiques des Trois 8), éd. Enfance et musique 2000
  365 contes de la tête aux pieds, recueillis et adaptés par Muriel Bloch, ill. de Mireille Vautier, Gallimard jeunesse-Giboulées, 2000
@@ -589,11 +605,7 @@
 Leigh Sauerwein et Georg Hallensleben, livre audio, musique par Jean Pierlot, lecture par Muriel Bloch, Petit Singe et les instruments de musique (Les percussions) (collection Mes premières découvertes de la musique, Gallimard Jeunesse Musique), 1995,  (ISBN 2-07-058617-0)
  365 contes pour tous les âges, recueillis et adaptés par Muriel Bloch, ill. de Mireille Vautier, Gallimard jeunesse-Giboulées, 1995
 365 contes des pourquoi et des comment, 365 contes en ville, éd Gallimard/Giboulées
-Traductions
-Les Ficelles du conteur, Anne Pellowski, éd Armand Colin 1984
-Ça pourrait être pire, S. Zemach éd Circonflexe 2005
-Jan Huling, Bourricot blues ou les musiciens de la Nouvelle-Orléans, éd Le Genévrier, 2012
-Au boulot p'tit coco, le Genevrier 2014</t>
+</t>
         </is>
       </c>
     </row>
@@ -618,12 +630,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Ficelles du conteur, Anne Pellowski, éd Armand Colin 1984
+Ça pourrait être pire, S. Zemach éd Circonflexe 2005
+Jan Huling, Bourricot blues ou les musiciens de la Nouvelle-Orléans, éd Le Genévrier, 2012
+Au boulot p'tit coco, le Genevrier 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muriel_Bloch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muriel_Bloch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Prix Bernard Versele 2021[6] pour Le Jardin d'Evan</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prix Bernard Versele 2021 pour Le Jardin d'Evan</t>
         </is>
       </c>
     </row>
